--- a/odkx/forms/hh_water_body.xlsx
+++ b/odkx/forms/hh_water_body.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -128,6 +128,21 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">display.title.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.sw</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_id</t>
   </si>
   <si>
@@ -147,6 +162,24 @@
   </si>
   <si>
     <t xml:space="preserve">instance_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Português</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiswahili</t>
   </si>
   <si>
     <t xml:space="preserve">hh_id</t>
@@ -228,8 +261,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -256,26 +293,26 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -297,92 +334,92 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="66.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="66.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -408,54 +445,54 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -475,68 +512,142 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>35</v>
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>20210119001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>35</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>39</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -561,41 +672,41 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>42</v>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>42</v>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_water_body.xlsx
+++ b/odkx/forms/hh_water_body.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="choices" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="settings" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="model" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="table_specific_translations" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -53,10 +54,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">display.prompt.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constraint</t>
+    <t xml:space="preserve">display.prompt</t>
   </si>
   <si>
     <t xml:space="preserve">begin screen</t>
@@ -65,127 +63,184 @@
     <t xml:space="preserve">note</t>
   </si>
   <si>
+    <t xml:space="preserve">hh_id_note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geopoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water_bodies_geo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53ai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water_body_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water_bodies_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53aii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice_list_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permanent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semi_permanent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setting_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_water_body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Bodies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instance_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Português</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiswahili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string_token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text.sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53a(i). Record GPS coordinates for this body of water (mandatory)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53a(i). Registar as coordenadas GPS dessa corpo de água (obrigatório)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53a (i). Chukuwa alama za GPS ya eneo hili la maji (lazima)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53a(ii). What is the type of water body close (&lt;50m) to the household?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53a(ii). Qual é o tipo de corpo de água perto (&lt;50 m) do agregado familiar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53a (ii). Eneo la maji lililo karibu (&lt; 50m) na kaya yako ni la aina gani?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Household ID: {{data.hh_id}}</t>
   </si>
   <si>
     <t xml:space="preserve">Water Body Details</t>
   </si>
   <si>
-    <t xml:space="preserve">geopoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water_bodies_geo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53a(i). Record GPS coordinates for this body of water (mandatory)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water_body_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water_bodies_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53a(ii). What is the type of water body close (&lt;50m) to the household?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permanent</t>
-  </si>
-  <si>
     <t xml:space="preserve">Permanent water (all year)</t>
   </si>
   <si>
-    <t xml:space="preserve">semi_permanent</t>
+    <t xml:space="preserve">Água permanente (todo o ano)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maji ya kudumu (mwaka mzima)</t>
   </si>
   <si>
     <t xml:space="preserve">Semi-permanent water (most of the year)</t>
   </si>
   <si>
-    <t xml:space="preserve">transient</t>
+    <t xml:space="preserve">Água semipermanente (a maior parte do ano)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maji ya kudumu kwa muda (wakati mwingi wa mwaka)</t>
   </si>
   <si>
     <t xml:space="preserve">Transient water (only present when it rains)</t>
   </si>
   <si>
-    <t xml:space="preserve">setting_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text.pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text.sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.locale.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.locale.text.pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.locale.text.sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_water_body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Bodies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Português</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiswahili</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
+    <t xml:space="preserve">Água transitória (presente apenas quando chove)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maji ya muda mfupi (huwepo kunaponyesha tu)</t>
   </si>
 </sst>
 </file>
@@ -279,6 +334,84 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Cascadia mono semilight"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFCC0000"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -293,7 +426,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -332,21 +465,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="66.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,59 +500,56 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -442,10 +571,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.67"/>
@@ -454,46 +583,46 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -514,59 +643,59 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20210119001</v>
@@ -574,29 +703,29 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -604,50 +733,50 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +801,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -687,26 +816,26 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -718,4 +847,137 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:D1048576">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/odkx/forms/hh_water_body.xlsx
+++ b/odkx/forms/hh_water_body.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,6 @@
     <sheet name="choices" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="settings" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="model" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="table_specific_translations" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -54,7 +53,10 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">display.prompt</t>
+    <t xml:space="preserve">display.prompt.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint</t>
   </si>
   <si>
     <t xml:space="preserve">begin screen</t>
@@ -63,10 +65,10 @@
     <t xml:space="preserve">note</t>
   </si>
   <si>
-    <t xml:space="preserve">hh_id_note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">water_detail</t>
+    <t xml:space="preserve">Household ID: {{data.hh_id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Body Details</t>
   </si>
   <si>
     <t xml:space="preserve">geopoint</t>
@@ -75,7 +77,7 @@
     <t xml:space="preserve">water_bodies_geo</t>
   </si>
   <si>
-    <t xml:space="preserve">53ai</t>
+    <t xml:space="preserve">53a(i). Record GPS coordinates for this body of water (mandatory)</t>
   </si>
   <si>
     <t xml:space="preserve">select_one</t>
@@ -87,7 +89,7 @@
     <t xml:space="preserve">water_bodies_type</t>
   </si>
   <si>
-    <t xml:space="preserve">53aii</t>
+    <t xml:space="preserve">53a(ii). What is the type of water body close (&lt;50m) to the household?</t>
   </si>
   <si>
     <t xml:space="preserve">end screen</t>
@@ -99,27 +101,33 @@
     <t xml:space="preserve">data_value</t>
   </si>
   <si>
-    <t xml:space="preserve">display.title</t>
+    <t xml:space="preserve">display.title.text</t>
   </si>
   <si>
     <t xml:space="preserve">permanent</t>
   </si>
   <si>
+    <t xml:space="preserve">Permanent water (all year)</t>
+  </si>
+  <si>
     <t xml:space="preserve">semi_permanent</t>
   </si>
   <si>
+    <t xml:space="preserve">Semi-permanent water (most of the year)</t>
+  </si>
+  <si>
     <t xml:space="preserve">transient</t>
   </si>
   <si>
+    <t xml:space="preserve">Transient water (only present when it rains)</t>
+  </si>
+  <si>
     <t xml:space="preserve">setting_name</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">display.title.text</t>
-  </si>
-  <si>
     <t xml:space="preserve">display.title.text.pt</t>
   </si>
   <si>
@@ -178,69 +186,6 @@
   </si>
   <si>
     <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string_token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text.pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text.sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53a(i). Record GPS coordinates for this body of water (mandatory)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53a(i). Registar as coordenadas GPS dessa corpo de água (obrigatório)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53a (i). Chukuwa alama za GPS ya eneo hili la maji (lazima)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53a(ii). What is the type of water body close (&lt;50m) to the household?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53a(ii). Qual é o tipo de corpo de água perto (&lt;50 m) do agregado familiar?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53a (ii). Eneo la maji lililo karibu (&lt; 50m) na kaya yako ni la aina gani?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Household ID: {{data.hh_id}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Water Body Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permanent water (all year)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Água permanente (todo o ano)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maji ya kudumu (mwaka mzima)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi-permanent water (most of the year)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Água semipermanente (a maior parte do ano)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maji ya kudumu kwa muda (wakati mwingi wa mwaka)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transient water (only present when it rains)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Água transitória (presente apenas quando chove)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maji ya muda mfupi (huwepo kunaponyesha tu)</t>
   </si>
 </sst>
 </file>
@@ -334,84 +279,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <name val="Cascadia mono semilight"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFCC0000"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,7 +293,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -465,20 +332,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="66.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -500,56 +368,59 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -571,10 +442,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.67"/>
@@ -583,46 +454,46 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -643,59 +514,59 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>20210119001</v>
@@ -703,29 +574,29 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -733,50 +604,50 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +672,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -816,26 +687,26 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -847,137 +718,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.54"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B1:D1048576">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>